--- a/biology/Zoologie/Catonephele/Catonephele.xlsx
+++ b/biology/Zoologie/Catonephele/Catonephele.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Catonephele est un genre de papillons de la famille des Nymphalidae, sous famille des Biblidinae, tribu des Biblidini, Sous-tribu des Epicalina.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomiation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre a été décrit par l’entomologiste allemand Jakob Hubner en 1819[1].
-L'espèce type pour le genre est Catonephele eupalemaena (Hübner, 1819), aujourd'hui Catonephele acontius
-Synonymie
-Epicalia (Doubleday, 1844)[2]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre a été décrit par l’entomologiste allemand Jakob Hubner en 1819.
+L'espèce type pour le genre est Catonephele eupalemaena (Hübner, 1819), aujourd'hui Catonephele acontius</t>
         </is>
       </c>
     </row>
@@ -541,18 +553,56 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomiation</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Epicalia (Doubleday, 1844)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Catonephele</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catonephele</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des espèces [3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des espèces 
 Catonephele acontius (Linnaeus, 1771)
-Catonephele antinoe (Godart, [1824])
-Catonephele chromis (Doubleday, [1848])
+Catonephele antinoe (Godart, )
+Catonephele chromis (Doubleday, )
 Catonephele cortesi (Maza, 1982)
 Catonephele mexicana (Jenkins &amp; Maza, 1985)
-Catonephele numilia (Cramer, [1775])
+Catonephele numilia (Cramer, )
 Catonephele nyctimus (Westwood, 1850)
 Catonephele orites (Stichel, 1899)
 Catonephele sabrina (Hewitson, 1851)
@@ -565,31 +615,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Catonephele</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Catonephele</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Amérique centrale et Amérique du Sud.
 </t>
